--- a/patient_data/patient_72.xlsx
+++ b/patient_data/patient_72.xlsx
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1093,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1170,19 +1170,19 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1324,19 +1324,19 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1599,13 +1599,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1676,13 +1676,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1753,13 +1753,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1792,13 +1792,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1842,13 +1842,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1919,13 +1919,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1958,19 +1958,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1996,13 +1996,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2106,19 +2106,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2183,19 +2183,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2260,19 +2260,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
